--- a/medicine/Mort/Peine_de_mort_en_Arizona/Peine_de_mort_en_Arizona.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Arizona/Peine_de_mort_en_Arizona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En Arizona, la pendaison fut utilisée comme méthode légale d'exécution, jusqu'à son abandon au profit de la chambre à gaz en 1934. La dernière exécution avec cette méthode avant un moratoire de onze ans date de 1962, jusqu'au rétablissement de la peine de mort en 1976. Sur les 38 condamnés à mort exécutés entre 1992 et 2022, seul le premier d'entre eux fut exécuté par gaz létal, l'injection létale devenant le seul mode légal de mise à mort en 1993.
 Les dates d'exécution sont fixées par la Cour suprême de l'État, le gouverneur ne peut gracier qu'avec l'accord d'un comité. Les condamnés à mort avant le 15 novembre 1992 peuvent choisir la chambre à gaz au lieu de l'injection létale, une vingtaine de condamnés y sont encore éligibles en 2019, ce fut notamment le cas de Walter LaGrand, un criminel de nationalité allemande qui fut exécuté un mois après son frère en 1999. 
@@ -512,10 +524,12 @@
           <t>Exécutions depuis 1973</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Florence, au Florence Arizona State Prison Complex.
-En mai 2022 le couloir de la mort de l'Arizona compte 116 condamnées dont trois femmes[2]. Depuis 1973, neuf condamnés ont été graciés dans l'Arizona[3].
+En mai 2022 le couloir de la mort de l'Arizona compte 116 condamnées dont trois femmes. Depuis 1973, neuf condamnés ont été graciés dans l'Arizona.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
